--- a/data/带传动.xlsx
+++ b/data/带传动.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZQ\Desktop\Learning\大三\大三上\机构方案设计实验报告\实验8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codefield\MyPython\MyDraw\7th_Experimental_Graphing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE943FF-FC8C-459A-B169-FCD044ECBC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483EACC6-B058-45A3-8527-57007876E1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{684D1315-0B75-41CC-AAFD-0AA13021880F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>n2(r/m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载（%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA2E300-F09A-4D86-B403-1FB0EA634906}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +544,11 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -576,8 +583,11 @@
       <c r="J2" s="1">
         <v>0.52</v>
       </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -612,8 +622,11 @@
       <c r="J3" s="1">
         <v>4.04</v>
       </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -648,8 +661,11 @@
       <c r="J4" s="1">
         <v>5.68</v>
       </c>
+      <c r="K4" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -684,8 +700,11 @@
       <c r="J5" s="1">
         <v>7.09</v>
       </c>
+      <c r="K5" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -720,8 +739,11 @@
       <c r="J6" s="1">
         <v>8.3800000000000008</v>
       </c>
+      <c r="K6" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -756,8 +778,11 @@
       <c r="J7" s="1">
         <v>9.5500000000000007</v>
       </c>
+      <c r="K7" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -792,8 +817,11 @@
       <c r="J8" s="1">
         <v>10.49</v>
       </c>
+      <c r="K8" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -827,6 +855,9 @@
       </c>
       <c r="J9" s="1">
         <v>8.67</v>
+      </c>
+      <c r="K9" s="1">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
